--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H2">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I2">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J2">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>498.9987741792098</v>
+        <v>668.4456969607041</v>
       </c>
       <c r="R2">
-        <v>4490.988967612888</v>
+        <v>6016.011272646338</v>
       </c>
       <c r="S2">
-        <v>0.02012902628393355</v>
+        <v>0.02043782146006058</v>
       </c>
       <c r="T2">
-        <v>0.02128387118019796</v>
+        <v>0.02118603308045123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H3">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I3">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J3">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>3286.224427853734</v>
+        <v>3383.85720997232</v>
       </c>
       <c r="R3">
-        <v>29576.01985068361</v>
+        <v>30454.71488975088</v>
       </c>
       <c r="S3">
-        <v>0.1325624456532549</v>
+        <v>0.1034619114435239</v>
       </c>
       <c r="T3">
-        <v>0.1401678340927932</v>
+        <v>0.1072495658450045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H4">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I4">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J4">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>2759.80731794845</v>
+        <v>3943.90212819888</v>
       </c>
       <c r="R4">
-        <v>24838.26586153605</v>
+        <v>35495.11915378992</v>
       </c>
       <c r="S4">
-        <v>0.1113273958096449</v>
+        <v>0.1205853638052818</v>
       </c>
       <c r="T4">
-        <v>0.1177144844373643</v>
+        <v>0.1249998935350996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H5">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I5">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J5">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>1218.90656308077</v>
+        <v>1204.708439059248</v>
       </c>
       <c r="R5">
-        <v>7313.439378484618</v>
+        <v>7228.250634355489</v>
       </c>
       <c r="S5">
-        <v>0.04916926356436359</v>
+        <v>0.03683413043254075</v>
       </c>
       <c r="T5">
-        <v>0.03466013894453882</v>
+        <v>0.02545506484496417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H6">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I6">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J6">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>2841.130838986078</v>
+        <v>4571.511718163841</v>
       </c>
       <c r="R6">
-        <v>25570.17755087471</v>
+        <v>41143.60546347457</v>
       </c>
       <c r="S6">
-        <v>0.1146078914284188</v>
+        <v>0.1397746155345509</v>
       </c>
       <c r="T6">
-        <v>0.121183189041964</v>
+        <v>0.1448916477868855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>42.154816</v>
       </c>
       <c r="I7">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J7">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>150.1303677926116</v>
+        <v>195.3081618543929</v>
       </c>
       <c r="R7">
-        <v>1351.173310133504</v>
+        <v>1757.773456689536</v>
       </c>
       <c r="S7">
-        <v>0.006056083252478651</v>
+        <v>0.005971574594349366</v>
       </c>
       <c r="T7">
-        <v>0.006403533583002569</v>
+        <v>0.006190188966348509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>42.154816</v>
       </c>
       <c r="I8">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J8">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>988.7039959452089</v>
@@ -948,10 +948,10 @@
         <v>8898.335963506879</v>
       </c>
       <c r="S8">
-        <v>0.03988316154512993</v>
+        <v>0.03022976411973902</v>
       </c>
       <c r="T8">
-        <v>0.0421713430451981</v>
+        <v>0.03133645060490366</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>42.154816</v>
       </c>
       <c r="I9">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J9">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>830.3244599385315</v>
+        <v>1152.339342888213</v>
       </c>
       <c r="R9">
-        <v>7472.920139446784</v>
+        <v>10371.05408599392</v>
       </c>
       <c r="S9">
-        <v>0.03349431650566163</v>
+        <v>0.0352329379311381</v>
       </c>
       <c r="T9">
-        <v>0.03541595642628225</v>
+        <v>0.03652278644224755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>42.154816</v>
       </c>
       <c r="I10">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J10">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>366.7241285735573</v>
+        <v>351.9947721601813</v>
       </c>
       <c r="R10">
-        <v>2200.344771441344</v>
+        <v>2111.968632961088</v>
       </c>
       <c r="S10">
-        <v>0.01479322195761281</v>
+        <v>0.01076228980303751</v>
       </c>
       <c r="T10">
-        <v>0.01042796030119673</v>
+        <v>0.007437525512332817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>42.154816</v>
       </c>
       <c r="I11">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J11">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>854.7917146800926</v>
+        <v>1335.715907260729</v>
       </c>
       <c r="R11">
-        <v>7693.125432120833</v>
+        <v>12021.44316534656</v>
       </c>
       <c r="S11">
-        <v>0.03448129691377723</v>
+        <v>0.04083970224968393</v>
       </c>
       <c r="T11">
-        <v>0.03645956199206556</v>
+        <v>0.04233480973245655</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H12">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I12">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J12">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>162.9219761355854</v>
+        <v>297.615925406722</v>
       </c>
       <c r="R12">
-        <v>1466.297785220268</v>
+        <v>2678.543328660498</v>
       </c>
       <c r="S12">
-        <v>0.006572081755627341</v>
+        <v>0.009099648894128299</v>
       </c>
       <c r="T12">
-        <v>0.006949136013804581</v>
+        <v>0.009432779460777328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H13">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I13">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J13">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>1072.944875849898</v>
+        <v>1506.614223966385</v>
       </c>
       <c r="R13">
-        <v>9656.503882649085</v>
+        <v>13559.52801569746</v>
       </c>
       <c r="S13">
-        <v>0.04328134000473111</v>
+        <v>0.04606494238592258</v>
       </c>
       <c r="T13">
-        <v>0.04576448220460216</v>
+        <v>0.04775134155782681</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H14">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I14">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J14">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>901.0708748397254</v>
+        <v>1755.966246673965</v>
       </c>
       <c r="R14">
-        <v>8109.637873557529</v>
+        <v>15803.69622006568</v>
       </c>
       <c r="S14">
-        <v>0.03634814404738775</v>
+        <v>0.05368891564803498</v>
       </c>
       <c r="T14">
-        <v>0.03843351410203934</v>
+        <v>0.05565442213083374</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H15">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I15">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J15">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>397.9702481401956</v>
+        <v>536.3792729403765</v>
       </c>
       <c r="R15">
-        <v>2387.821488841174</v>
+        <v>3218.275637642259</v>
       </c>
       <c r="S15">
-        <v>0.01605365383555147</v>
+        <v>0.01639987191940435</v>
       </c>
       <c r="T15">
-        <v>0.01131645731849074</v>
+        <v>0.01133350504695894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H16">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I16">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J16">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>927.6228213360829</v>
+        <v>2035.40047709962</v>
       </c>
       <c r="R16">
-        <v>8348.605392024747</v>
+        <v>18318.60429389658</v>
       </c>
       <c r="S16">
-        <v>0.03741921847997309</v>
+        <v>0.06223265665382785</v>
       </c>
       <c r="T16">
-        <v>0.03956603834469213</v>
+        <v>0.06451094237851571</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H17">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I17">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J17">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>58.027113065636</v>
+        <v>30.21019957862833</v>
       </c>
       <c r="R17">
-        <v>348.162678393816</v>
+        <v>181.26119747177</v>
       </c>
       <c r="S17">
-        <v>0.00234074579842452</v>
+        <v>0.00092368111286847</v>
       </c>
       <c r="T17">
-        <v>0.001650026230330615</v>
+        <v>0.0006383308726996256</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H18">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I18">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J18">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>382.145460673295</v>
+        <v>152.9323954416208</v>
       </c>
       <c r="R18">
-        <v>2292.87276403977</v>
+        <v>917.594372649725</v>
       </c>
       <c r="S18">
-        <v>0.01541530043802487</v>
+        <v>0.004675929559733516</v>
       </c>
       <c r="T18">
-        <v>0.01086647259531042</v>
+        <v>0.003231407630797468</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H19">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I19">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J19">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>320.929949259656</v>
+        <v>178.2434548583375</v>
       </c>
       <c r="R19">
-        <v>1925.579695557936</v>
+        <v>1069.460729150025</v>
       </c>
       <c r="S19">
-        <v>0.01294593838346592</v>
+        <v>0.005449818771192157</v>
       </c>
       <c r="T19">
-        <v>0.009125782869434254</v>
+        <v>0.00376622139806085</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H20">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I20">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J20">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>141.7430915911065</v>
+        <v>54.44643079238374</v>
       </c>
       <c r="R20">
-        <v>566.972366364426</v>
+        <v>217.785723169535</v>
       </c>
       <c r="S20">
-        <v>0.005717750350983239</v>
+        <v>0.001664707300431167</v>
       </c>
       <c r="T20">
-        <v>0.002687017691527899</v>
+        <v>0.0007669559324961399</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H21">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I21">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J21">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>330.3868244952881</v>
+        <v>206.6080790252833</v>
       </c>
       <c r="R21">
-        <v>1982.320946971728</v>
+        <v>1239.6484741517</v>
       </c>
       <c r="S21">
-        <v>0.01332741765762853</v>
+        <v>0.00631707115555426</v>
       </c>
       <c r="T21">
-        <v>0.009394693235147378</v>
+        <v>0.004365555912589916</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H22">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I22">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J22">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>296.3626604079729</v>
+        <v>395.8231772452707</v>
       </c>
       <c r="R22">
-        <v>2667.263943671756</v>
+        <v>3562.408595207436</v>
       </c>
       <c r="S22">
-        <v>0.01195492271647569</v>
+        <v>0.01210234946993507</v>
       </c>
       <c r="T22">
-        <v>0.0126408019681401</v>
+        <v>0.01254540640362682</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H23">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I23">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J23">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>1951.736686604827</v>
+        <v>2003.766526264737</v>
       </c>
       <c r="R23">
-        <v>17565.63017944344</v>
+        <v>18033.89873638263</v>
       </c>
       <c r="S23">
-        <v>0.07873077269299385</v>
+        <v>0.06126544414549796</v>
       </c>
       <c r="T23">
-        <v>0.08324772397225318</v>
+        <v>0.06350832102587559</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H24">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I24">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J24">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>1639.089876134353</v>
+        <v>2335.39968650563</v>
       </c>
       <c r="R24">
-        <v>14751.80888520918</v>
+        <v>21018.59717855067</v>
       </c>
       <c r="S24">
-        <v>0.06611896642974237</v>
+        <v>0.07140517479236529</v>
       </c>
       <c r="T24">
-        <v>0.06991235165616105</v>
+        <v>0.07401925876604507</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H25">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I25">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J25">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>723.9264112773568</v>
+        <v>713.373613100923</v>
       </c>
       <c r="R25">
-        <v>4343.558467664141</v>
+        <v>4280.241678605538</v>
       </c>
       <c r="S25">
-        <v>0.02920234380175503</v>
+        <v>0.02181149883254032</v>
       </c>
       <c r="T25">
-        <v>0.02058516276840483</v>
+        <v>0.01507333309157413</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H26">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I26">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J26">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>1687.389103097583</v>
+        <v>2707.041576189507</v>
       </c>
       <c r="R26">
-        <v>15186.50192787825</v>
+        <v>24363.37418570556</v>
       </c>
       <c r="S26">
-        <v>0.06806730069295917</v>
+        <v>0.0827681779846577</v>
       </c>
       <c r="T26">
-        <v>0.07197246598505787</v>
+        <v>0.08579825204062798</v>
       </c>
     </row>
   </sheetData>
